--- a/ig/ch-emed-epr/ValueSet-ch-emed-epr-substance-admin-substitution-code.xlsx
+++ b/ig/ch-emed-epr/ValueSet-ch-emed-epr-substance-admin-substitution-code.xlsx
@@ -7,13 +7,13 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from Substance Admin " r:id="rId4" sheetId="2"/>
+    <sheet name="Include #0" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>2.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-26T09:56:16+01:00</t>
+    <t>2025-01-21T11:06:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>CARA (https://www.cara.ch)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -109,6 +109,12 @@
   </si>
   <si>
     <t>equivalent</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>none</t>
   </si>
   <si>
     <t/>
@@ -386,7 +392,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -417,15 +423,23 @@
         <v>32</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s" s="2">
         <v>34</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/ig/ch-emed-epr/ValueSet-ch-emed-epr-substance-admin-substitution-code.xlsx
+++ b/ig/ch-emed-epr/ValueSet-ch-emed-epr-substance-admin-substitution-code.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0</t>
+    <t>3.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-21T11:06:41+00:00</t>
+    <t>2026-02-11T07:11:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
